--- a/Генерация датасетов/dataset_complex_0.xlsx
+++ b/Генерация датасетов/dataset_complex_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Оля\Documents\АНДРЕЙ\РЕПОЗИТОРИИ\Regression_of_complex_numbers\Генерация датасетов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA17D05-74C7-4ED3-97D2-E88ED8C924D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E04995-07A2-442C-9AD0-7CF5CE8E1CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2200,7 +2200,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
